--- a/Automation2/src/Exceldata/Exceltoapp.xlsx
+++ b/Automation2/src/Exceldata/Exceltoapp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="14232" windowHeight="4236"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="14136" windowHeight="4236" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M9"/>
+  <oleSize ref="A1:K13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>middle initial</t>
   </si>
@@ -80,6 +80,48 @@
   </si>
   <si>
     <t>rxrt@gmail.com</t>
+  </si>
+  <si>
+    <t>current password</t>
+  </si>
+  <si>
+    <t>new password</t>
+  </si>
+  <si>
+    <t>Retype password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>middleinitial</t>
+  </si>
+  <si>
+    <t>e-mailaddress</t>
+  </si>
+  <si>
+    <t>manuwadu</t>
+  </si>
+  <si>
+    <t>nadiniooo</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>radha@gmail.com</t>
+  </si>
+  <si>
+    <t>nadini@gmail.com</t>
+  </si>
+  <si>
+    <t>4946d4s</t>
+  </si>
+  <si>
+    <t>45496ds</t>
   </si>
 </sst>
 </file>
@@ -102,7 +144,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,12 +180,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -608,12 +658,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>9461664</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>4946446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>155848464</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>84949654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>9461664</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>4946446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>155848464</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>84949654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>9461664</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>4946446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>155848464</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>84949654</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
